--- a/pyscript/Reviews_Ans.xlsx
+++ b/pyscript/Reviews_Ans.xlsx
@@ -314,7 +314,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,16 +375,29 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1948310077</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="0" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>I love the food</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>0.6369</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The food was delicious</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5719</v>
       </c>
     </row>
   </sheetData>
